--- a/examples/XlsxPeasant_08_tables.xlsx
+++ b/examples/XlsxPeasant_08_tables.xlsx
@@ -198,26 +198,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{338882F7-32B4-45E8-B790-9E9CBA33A19D}" name="Workers" displayName="Workers" ref="A1:F11" totalsRowShown="10">
-  <autoFilter ref="A1:F11" xr:uid="{305D5C64-8866-4F8D-BFF2-73DF516E2160}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2684526F-40AA-48E7-B21F-0D29200E0C2D}" name="Workers" displayName="Workers" ref="A1:F11" totalsRowShown="10">
+  <autoFilter ref="A1:F11" xr:uid="{D4AD7A98-04CC-4A6B-8AAC-D32C95D82E68}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{09652FB8-67AE-4A1D-9E05-A2D2D562B2C1}" name="first name"/>
-    <tableColumn id="2" xr3:uid="{DF575F51-8D66-41E3-8280-0A11B8CF3146}" name="surname"/>
-    <tableColumn id="3" xr3:uid="{C67033CE-06DB-4874-9994-1BBD0E1BAA86}" name="department"/>
-    <tableColumn id="4" xr3:uid="{EC6EB004-84E6-4CBB-AC12-641F7096923D}" name="age"/>
-    <tableColumn id="5" xr3:uid="{66FE84C4-0F3A-46DD-B69B-FE9DDD64CD1B}" name="exam"/>
-    <tableColumn id="6" xr3:uid="{585EEDA1-857C-4696-87D7-5A1E6FE2FFCD}" name="readiness"/>
+    <tableColumn id="1" xr3:uid="{7FFF8D01-FCCB-40CA-9985-69D0C5853ADF}" name="first name"/>
+    <tableColumn id="2" xr3:uid="{1823AD1D-D717-48FF-97A6-AACC271041F8}" name="surname"/>
+    <tableColumn id="3" xr3:uid="{435F6C4D-76E3-4D91-9652-C692519F8B9A}" name="department"/>
+    <tableColumn id="4" xr3:uid="{EF36DA88-B89F-438A-97D1-F4ADB332F78B}" name="age"/>
+    <tableColumn id="5" xr3:uid="{AC418F97-6993-4E7B-9959-9BC20874D108}" name="exam"/>
+    <tableColumn id="6" xr3:uid="{B8641398-2339-4BB6-9E5F-7460A508A963}" name="readiness"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D2B2846F-08BF-4746-AC01-0AEBD165A7E1}" name="Dep.Phones" displayName="Dep.Phones" ref="H2:I6" totalsRowShown="4">
-  <autoFilter ref="H2:I6" xr:uid="{2BC36C8E-3451-4CEA-B6C6-2053D29AF898}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE79D9E3-146E-4B4B-AF0C-D758B5758462}" name="Dep.Phones" displayName="Dep.Phones" ref="H2:I6" totalsRowShown="4">
+  <autoFilter ref="H2:I6" xr:uid="{7ED65D24-E41D-45F4-BF64-1C1110A879F8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E222DD07-F738-42CD-ADC8-8A28FCE55E40}" name="department"/>
-    <tableColumn id="2" xr3:uid="{37224E34-BBF4-4DCC-9C2F-4B31118422C0}" name="phone"/>
+    <tableColumn id="1" xr3:uid="{FD652C0A-A077-4F9E-9972-039A4C0104ED}" name="department"/>
+    <tableColumn id="2" xr3:uid="{1FBE6B5D-D432-4275-A33E-DF2E6BAA47AC}" name="phone"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,7 +519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07FD27B-EFEC-422F-AD22-0546F83D747F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE083E88-9D02-49CF-A71B-8B9ED65F2107}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
